--- a/media/BAJAJ-PL/Billing/MAR 22/BAJAJ-PL Billing.xlsx
+++ b/media/BAJAJ-PL/Billing/MAR 22/BAJAJ-PL Billing.xlsx
@@ -809,15 +809,15 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -997,15 +997,15 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U6" t="n">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3249,15 +3249,15 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3437,15 +3437,15 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>6581</v>
+        <v>0</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>1052.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3719,15 +3719,15 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3291</v>
+        <v>0</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>493.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3907,15 +3907,15 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3581</v>
+        <v>0</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>537.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4565,15 +4565,15 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>4478</v>
+        <v>0</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>671.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4659,15 +4659,15 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>4738</v>
+        <v>0</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>805.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5505,15 +5505,15 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U54" t="n">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>2580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5975,15 +5975,15 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>70500</v>
+        <v>0</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U59" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>3465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6163,15 +6163,15 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U61" t="n">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>1246.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>1950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7291,15 +7291,15 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>2627</v>
+        <v>0</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U73" t="n">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>394.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -7949,15 +7949,15 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U80" t="n">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -7974,7 +7974,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -8231,15 +8231,15 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>4278</v>
+        <v>0</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U83" t="n">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>641.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -8419,15 +8419,15 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U85" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>224.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8889,15 +8889,15 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>5158</v>
+        <v>0</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U90" t="n">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -8914,7 +8914,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>773.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -9077,15 +9077,15 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>5841</v>
+        <v>0</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>876.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -9453,15 +9453,15 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>3378</v>
+        <v>0</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U96" t="n">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>506.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -11145,15 +11145,15 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U114" t="n">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="X114" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -11521,15 +11521,15 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U118" t="n">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="X118" t="n">
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -12461,15 +12461,15 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>149995</v>
+        <v>0</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U128" t="n">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="X128" t="n">
-        <v>3467.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -12837,15 +12837,15 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>10282</v>
+        <v>0</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U132" t="n">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="X132" t="n">
-        <v>1177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -13213,15 +13213,15 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U136" t="n">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
@@ -13238,7 +13238,7 @@
         </is>
       </c>
       <c r="X136" t="n">
-        <v>4095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -13587,15 +13587,15 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>3663</v>
+        <v>0</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U140" t="n">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="X140" t="n">
-        <v>586.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -13775,15 +13775,15 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U142" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
@@ -13800,7 +13800,7 @@
         </is>
       </c>
       <c r="X142" t="n">
-        <v>656.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -15279,15 +15279,15 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U158" t="n">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
@@ -15304,7 +15304,7 @@
         </is>
       </c>
       <c r="X158" t="n">
-        <v>11680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -15937,15 +15937,15 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U165" t="n">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="X165" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -16501,15 +16501,15 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U171" t="n">
@@ -16517,7 +16517,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
@@ -16526,7 +16526,7 @@
         </is>
       </c>
       <c r="X171" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -16595,15 +16595,15 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>20139</v>
+        <v>0</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U172" t="n">
@@ -16611,7 +16611,7 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
@@ -16620,7 +16620,7 @@
         </is>
       </c>
       <c r="X172" t="n">
-        <v>3020.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -16689,15 +16689,15 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U173" t="n">
@@ -16705,7 +16705,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
@@ -16714,7 +16714,7 @@
         </is>
       </c>
       <c r="X173" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -17159,15 +17159,15 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>2419</v>
+        <v>0</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U178" t="n">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
@@ -17184,7 +17184,7 @@
         </is>
       </c>
       <c r="X178" t="n">
-        <v>362.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -17253,15 +17253,15 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U179" t="n">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
@@ -17278,7 +17278,7 @@
         </is>
       </c>
       <c r="X179" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -17723,15 +17723,15 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
@@ -17748,7 +17748,7 @@
         </is>
       </c>
       <c r="X184" t="n">
-        <v>782.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -18005,15 +18005,15 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>8065</v>
+        <v>0</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U187" t="n">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
@@ -18030,7 +18030,7 @@
         </is>
       </c>
       <c r="X187" t="n">
-        <v>1290.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -19039,15 +19039,15 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>14875</v>
+        <v>0</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U198" t="n">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
@@ -19064,7 +19064,7 @@
         </is>
       </c>
       <c r="X198" t="n">
-        <v>2380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -19603,15 +19603,15 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U204" t="n">
@@ -19619,7 +19619,7 @@
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
@@ -19628,7 +19628,7 @@
         </is>
       </c>
       <c r="X204" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -19697,15 +19697,15 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U205" t="n">
@@ -19713,7 +19713,7 @@
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W205" t="inlineStr">
@@ -19722,7 +19722,7 @@
         </is>
       </c>
       <c r="X205" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -21107,15 +21107,15 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>7450</v>
+        <v>0</v>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U220" t="n">
@@ -21123,7 +21123,7 @@
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W220" t="inlineStr">
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="X220" t="n">
-        <v>1117.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -21765,15 +21765,15 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U227" t="n">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W227" t="inlineStr">
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="X227" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -22611,15 +22611,15 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>4508</v>
+        <v>0</v>
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U236" t="n">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W236" t="inlineStr">
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="X236" t="n">
-        <v>676.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -23363,15 +23363,15 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>NEELU MALIK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U244" t="n">
@@ -23379,7 +23379,7 @@
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W244" t="inlineStr">
@@ -23388,7 +23388,7 @@
         </is>
       </c>
       <c r="X244" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -24961,15 +24961,15 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T261" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U261" t="n">
@@ -24977,7 +24977,7 @@
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W261" t="inlineStr">
@@ -24986,7 +24986,7 @@
         </is>
       </c>
       <c r="X261" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -25055,15 +25055,15 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T262" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U262" t="n">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="V262" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W262" t="inlineStr">
@@ -25080,7 +25080,7 @@
         </is>
       </c>
       <c r="X262" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -26277,15 +26277,15 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>4465</v>
+        <v>0</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U275" t="n">
@@ -26293,7 +26293,7 @@
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W275" t="inlineStr">
@@ -26302,7 +26302,7 @@
         </is>
       </c>
       <c r="X275" t="n">
-        <v>669.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -27875,15 +27875,15 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U292" t="n">
@@ -27891,7 +27891,7 @@
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>MORE THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W292" t="inlineStr">
@@ -27900,7 +27900,7 @@
         </is>
       </c>
       <c r="X292" t="n">
-        <v>956.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -30881,15 +30881,15 @@
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -30897,7 +30897,7 @@
       </c>
       <c r="V324" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W324" t="inlineStr">
@@ -30906,7 +30906,7 @@
         </is>
       </c>
       <c r="X324" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -30975,15 +30975,15 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>18500</v>
+        <v>0</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -30991,7 +30991,7 @@
       </c>
       <c r="V325" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W325" t="inlineStr">
@@ -31000,7 +31000,7 @@
         </is>
       </c>
       <c r="X325" t="n">
-        <v>2775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -31257,15 +31257,15 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="V328" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W328" t="inlineStr">
@@ -31282,7 +31282,7 @@
         </is>
       </c>
       <c r="X328" t="n">
-        <v>787.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -33325,15 +33325,15 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U350" t="n">
@@ -33341,7 +33341,7 @@
       </c>
       <c r="V350" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W350" t="inlineStr">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="X350" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -33419,15 +33419,15 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>6807</v>
+        <v>0</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U351" t="n">
@@ -33435,7 +33435,7 @@
       </c>
       <c r="V351" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W351" t="inlineStr">
@@ -33444,7 +33444,7 @@
         </is>
       </c>
       <c r="X351" t="n">
-        <v>1021.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -33795,15 +33795,15 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U355" t="n">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W355" t="inlineStr">
@@ -33820,7 +33820,7 @@
         </is>
       </c>
       <c r="X355" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -33889,15 +33889,15 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T356" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U356" t="n">
@@ -33905,7 +33905,7 @@
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W356" t="inlineStr">
@@ -33914,7 +33914,7 @@
         </is>
       </c>
       <c r="X356" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -34171,15 +34171,15 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2479</v>
+        <v>0</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U359" t="n">
@@ -34187,7 +34187,7 @@
       </c>
       <c r="V359" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W359" t="inlineStr">
@@ -34196,7 +34196,7 @@
         </is>
       </c>
       <c r="X359" t="n">
-        <v>371.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -35393,15 +35393,15 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>6201</v>
+        <v>0</v>
       </c>
       <c r="T372" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U372" t="n">
@@ -35409,7 +35409,7 @@
       </c>
       <c r="V372" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W372" t="inlineStr">
@@ -35418,7 +35418,7 @@
         </is>
       </c>
       <c r="X372" t="n">
-        <v>1054.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -38401,15 +38401,15 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -38417,7 +38417,7 @@
       </c>
       <c r="V404" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W404" t="inlineStr">
@@ -38426,7 +38426,7 @@
         </is>
       </c>
       <c r="X404" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -45183,15 +45183,15 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U477" t="n">
@@ -45199,7 +45199,7 @@
       </c>
       <c r="V477" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W477" t="inlineStr">
@@ -45208,7 +45208,7 @@
         </is>
       </c>
       <c r="X477" t="n">
-        <v>2720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -57051,15 +57051,15 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U606" t="n">
@@ -57067,7 +57067,7 @@
       </c>
       <c r="V606" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W606" t="inlineStr">
@@ -57076,7 +57076,7 @@
         </is>
       </c>
       <c r="X606" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -57511,15 +57511,15 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>5384</v>
+        <v>0</v>
       </c>
       <c r="T611" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U611" t="n">
@@ -57527,7 +57527,7 @@
       </c>
       <c r="V611" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W611" t="inlineStr">
@@ -57536,7 +57536,7 @@
         </is>
       </c>
       <c r="X611" t="n">
-        <v>861.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -59443,15 +59443,15 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U632" t="n">
@@ -59459,7 +59459,7 @@
       </c>
       <c r="V632" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W632" t="inlineStr">
@@ -59468,7 +59468,7 @@
         </is>
       </c>
       <c r="X632" t="n">
-        <v>360.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -64503,15 +64503,15 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T687" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U687" t="n">
@@ -64519,7 +64519,7 @@
       </c>
       <c r="V687" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W687" t="inlineStr">
@@ -64528,7 +64528,7 @@
         </is>
       </c>
       <c r="X687" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -65975,15 +65975,15 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>5306</v>
+        <v>0</v>
       </c>
       <c r="T703" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U703" t="n">
@@ -65991,7 +65991,7 @@
       </c>
       <c r="V703" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W703" t="inlineStr">
@@ -66000,7 +66000,7 @@
         </is>
       </c>
       <c r="X703" t="n">
-        <v>848.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -68183,15 +68183,15 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>--</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="T727" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="U727" t="n">
@@ -68199,7 +68199,7 @@
       </c>
       <c r="V727" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>UNPAID</t>
         </is>
       </c>
       <c r="W727" t="inlineStr">
@@ -68208,7 +68208,7 @@
         </is>
       </c>
       <c r="X727" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
